--- a/SecurityTools/Security_Tools_Analysis.xlsx
+++ b/SecurityTools/Security_Tools_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark.LAPTOP-GM62F4BJ\Documents\GitHub\TestVuln\SecurityTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368B89E-BCF7-44AD-A18A-82945FB382F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA3927-04F3-4420-AB4F-F2FBACC04827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0043CBEC-C002-4EFE-A31D-E6647D16886E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0043CBEC-C002-4EFE-A31D-E6647D16886E}"/>
   </bookViews>
   <sheets>
     <sheet name="Vulnerability Scanner" sheetId="1" r:id="rId1"/>
@@ -2391,23 +2391,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F171D29D-AE70-4409-970C-0124CF2AC9D1}" name="Table1" displayName="Table1" ref="A1:F88" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:F88" xr:uid="{F171D29D-AE70-4409-970C-0124CF2AC9D1}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Free"/>
-        <filter val="Open Source"/>
-        <filter val="Open Source or Free"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Linux / Mac / Windows"/>
-        <filter val="Windows, Linux and Macintosh"/>
-        <filter val="Windows, Unix/Linux and Macintosh"/>
-        <filter val="Windows, Unix/Linux, and Macintosh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F88" xr:uid="{F171D29D-AE70-4409-970C-0124CF2AC9D1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B711E65-E524-4274-AE9B-8EF364FE7E73}" name="Name/Link" dataDxfId="16" dataCellStyle="Hyperlink"/>
     <tableColumn id="2" xr3:uid="{52781838-746F-42AE-B610-DA1433314D12}" name="Owner" dataDxfId="15"/>
@@ -2750,11 +2734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB541C55-9520-44B2-ADEF-BD3A561AD7BA}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,7 +2771,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +2787,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2821,7 +2805,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2839,7 +2823,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2855,7 +2839,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2857,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2889,7 +2873,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -2905,7 +2889,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2905,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -2937,7 +2921,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -2955,7 +2939,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2973,7 +2957,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2991,7 +2975,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -3009,7 +2993,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -3027,7 +3011,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -3045,7 +3029,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -3061,7 +3045,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -3079,7 +3063,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="69.599999999999994" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -3097,7 +3081,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -3115,7 +3099,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3131,7 +3115,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -3147,7 +3131,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -3165,7 +3149,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -3181,7 +3165,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -3197,7 +3181,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -3213,7 +3197,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -3229,7 +3213,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -3247,7 +3231,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3283,7 +3267,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>75</v>
       </c>
@@ -3299,7 +3283,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>78</v>
       </c>
@@ -3335,7 +3319,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -3351,7 +3335,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -3369,7 +3353,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
@@ -3385,7 +3369,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>89</v>
       </c>
@@ -3403,7 +3387,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>91</v>
       </c>
@@ -3421,7 +3405,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
@@ -3439,7 +3423,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>95</v>
       </c>
@@ -3453,7 +3437,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
@@ -3469,7 +3453,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>99</v>
       </c>
@@ -3487,7 +3471,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>101</v>
       </c>
@@ -3505,7 +3489,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>104</v>
       </c>
@@ -3523,7 +3507,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3539,7 +3523,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>109</v>
       </c>
@@ -3555,7 +3539,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>111</v>
       </c>
@@ -3571,7 +3555,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>113</v>
       </c>
@@ -3589,7 +3573,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
@@ -3605,7 +3589,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>118</v>
       </c>
@@ -3643,7 +3627,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>126</v>
       </c>
@@ -3661,7 +3645,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>129</v>
       </c>
@@ -3679,7 +3663,7 @@
       </c>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>132</v>
       </c>
@@ -3697,7 +3681,7 @@
       </c>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>133</v>
       </c>
@@ -3713,7 +3697,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>136</v>
       </c>
@@ -3731,7 +3715,7 @@
       </c>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
@@ -3747,7 +3731,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>142</v>
       </c>
@@ -3765,7 +3749,7 @@
       </c>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
@@ -3801,7 +3785,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>150</v>
       </c>
@@ -3817,7 +3801,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>152</v>
       </c>
@@ -3835,7 +3819,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>154</v>
       </c>
@@ -3851,7 +3835,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>157</v>
       </c>
@@ -3867,7 +3851,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>159</v>
       </c>
@@ -3885,7 +3869,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>161</v>
       </c>
@@ -3903,7 +3887,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>162</v>
       </c>
@@ -3919,7 +3903,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>164</v>
       </c>
@@ -3935,7 +3919,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>166</v>
       </c>
@@ -3953,7 +3937,7 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>167</v>
       </c>
@@ -3969,7 +3953,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>170</v>
       </c>
@@ -3985,7 +3969,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="55.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>171</v>
       </c>
@@ -4003,7 +3987,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>173</v>
       </c>
@@ -4021,7 +4005,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>175</v>
       </c>
@@ -4055,7 +4039,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>179</v>
       </c>
@@ -4071,7 +4055,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>181</v>
       </c>
@@ -4107,7 +4091,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>187</v>
       </c>
@@ -4123,7 +4107,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>190</v>
       </c>
@@ -4139,7 +4123,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>192</v>
       </c>
@@ -4155,7 +4139,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>193</v>
       </c>
@@ -4171,7 +4155,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>195</v>
       </c>
@@ -4187,7 +4171,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>196</v>
       </c>
@@ -4203,7 +4187,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>198</v>
       </c>
@@ -4221,7 +4205,7 @@
       </c>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>200</v>
       </c>
@@ -4239,7 +4223,7 @@
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>203</v>
       </c>
@@ -4379,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC9A788-1176-4E0E-A355-2BEE767E7D35}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
